--- a/kb_proc.xlsx
+++ b/kb_proc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/687f7b4a636e44f5/master/CDSS/Project/CDSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9F520AE6-D3B2-492D-AB35-E14EB0ABCE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F064AD-FB44-481C-8170-40044E9F6944}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9F520AE6-D3B2-492D-AB35-E14EB0ABCE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88196560-426E-4DE8-AE26-B010E1711860}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="treatments" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="49">
   <si>
     <t>Therapy_Code</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>CCTG001</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
   </si>
   <si>
     <t>1234-10</t>
-  </si>
-  <si>
-    <t>female</t>
   </si>
   <si>
     <t>CCTG000</t>
@@ -211,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -219,22 +210,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,18 +510,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -551,7 +532,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -562,54 +543,54 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -617,57 +598,57 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,282 +680,172 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
+      <c r="C16">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
         <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
     </row>
@@ -988,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44305B0-ABC2-4239-A430-BB1A72D70E71}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1005,42 +876,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1051,16 +922,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1071,16 +942,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1092,21 +963,21 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1117,16 +988,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1138,32 +1009,32 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1174,16 +1045,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1195,43 +1066,43 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1242,16 +1113,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1263,43 +1134,43 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1310,16 +1181,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1330,16 +1201,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1351,21 +1222,21 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1376,16 +1247,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1397,32 +1268,32 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1433,16 +1304,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1454,43 +1325,43 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1501,16 +1372,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1522,29 +1393,29 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
